--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1469216.318292666</v>
+        <v>-1404675.304466729</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241025</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10545793.23137267</v>
+        <v>10528355.24999348</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5499329784448</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>43.48444247383176</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -874,13 +874,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>65.05155986511886</v>
       </c>
       <c r="W4" t="n">
-        <v>104.8815236086018</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>201.2597500022993</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>326.1682538784317</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>93.65321085972721</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>37.33249340918831</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1145,13 +1145,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>316.8052704688283</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,22 +1291,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>32.98066327132575</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>264.3333961901993</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1376,16 +1376,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>408.9113595565476</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1537,13 +1537,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>3.139541480022616</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>14.14416275345333</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>13.51446909089648</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226066</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>27.07950026194645</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>39.57637241135472</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.139541480022588</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>39.57637241135472</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277814</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742934476</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3439,10 +3439,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277814</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934476</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3569,7 +3569,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245954</v>
       </c>
     </row>
     <row r="39">
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169449</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U41" t="n">
         <v>240.3943693174059</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>907.8468535075729</v>
+        <v>223.3880453475122</v>
       </c>
       <c r="C2" t="n">
-        <v>479.2651792448412</v>
+        <v>223.3880453475122</v>
       </c>
       <c r="D2" t="n">
-        <v>479.2651792448412</v>
+        <v>223.3880453475122</v>
       </c>
       <c r="E2" t="n">
-        <v>479.2651792448412</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>479.2651792448412</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>77.86734786810507</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,19 +4328,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.309253581271</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>949.4537989923044</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X2" t="n">
-        <v>934.3517396120192</v>
+        <v>1057.973739532767</v>
       </c>
       <c r="Y2" t="n">
-        <v>930.1060199520766</v>
+        <v>649.68761583242</v>
       </c>
     </row>
     <row r="3">
@@ -4404,19 +4404,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
         <v>319.8519551513677</v>
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3833729168607</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>1193.800414303116</v>
       </c>
       <c r="W4" t="n">
-        <v>845.19479826934</v>
+        <v>1193.800414303116</v>
       </c>
       <c r="X4" t="n">
-        <v>599.8030436027525</v>
+        <v>1193.800414303116</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.3833729168607</v>
+        <v>966.3807436172247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>170.1586911800599</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>136.0566224038872</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5576814812557</v>
+        <v>104.1872416187358</v>
       </c>
       <c r="E5" t="n">
-        <v>363.8233406799549</v>
+        <v>74.45290081743507</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>562.6504997812815</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1189.145706210986</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640691</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599286</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352343</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.64188953618</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409218</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1968.352359726235</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1605.735409660062</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1200.879955071095</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>781.7374916504058</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>373.4513679500592</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.36152745083439</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.68954842750445</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.68954842750445</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>429.4587135897356</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>203.7016723508711</v>
+        <v>830.1298402584191</v>
       </c>
       <c r="C7" t="n">
-        <v>203.7016723508711</v>
+        <v>657.568128741644</v>
       </c>
       <c r="D7" t="n">
-        <v>203.7016723508711</v>
+        <v>491.6901359431668</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>321.932132193904</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>145.2250781556602</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>145.2250781556602</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704686</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.3843298381825</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>743.5942116061435</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1203.078078787057</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2015.594094517669</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2363.10098848801</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352343</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2509.875942057715</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2350.634573355711</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2104.755126934167</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1826.322126187272</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1539.366618057702</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1267.340213643994</v>
       </c>
       <c r="X7" t="n">
-        <v>395.5202910698582</v>
+        <v>1021.948458977406</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.5202910698582</v>
+        <v>1021.948458977406</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>763.0287521501522</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>728.9266833739796</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>697.0573025888282</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>667.3229617875274</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>643.4959362371393</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1613.531556264254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1613.531556264254</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1612.716505715692</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1597.614446335406</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1189.32832263506</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>725.2083624201957</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>453.1819580064872</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>453.1819580064872</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.7622873205955</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1366.524146594471</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>928.3816737778948</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>492.4718889523393</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43011162249326</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43011162249326</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43011162249326</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43011162249326</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>79.01332224963326</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="K11" t="n">
-        <v>79.01332224963326</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="L11" t="n">
-        <v>79.01332224963326</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M11" t="n">
-        <v>451.1236612581917</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N11" t="n">
-        <v>1428.913524097403</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O11" t="n">
-        <v>2406.703386936615</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P11" t="n">
-        <v>3235.013261770011</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q11" t="n">
-        <v>3781.512047728606</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481663</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.0142386655</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T11" t="n">
-        <v>3646.947011538538</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3387.724708855555</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3025.107758789381</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2620.252304200415</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2201.109840779726</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1792.823717079379</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409261</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775683</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241216</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510753</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F12" t="n">
-        <v>206.1340641672369</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334208</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>264.6182005228287</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634102</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569394</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025884</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414684</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206892</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>767.089338372617</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>594.527626855842</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>428.6496340573647</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>258.8916303081019</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F13" t="n">
-        <v>82.18457626985813</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>82.18457626985813</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143231</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854587</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534198</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.255110857805</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2515.013742155801</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2269.134295734256</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>1990.701294987362</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1703.745786857792</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.719382444084</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1186.327627777496</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>958.9079570916042</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
         <v>793.2056155771595</v>
@@ -5276,10 +5276,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L14" t="n">
         <v>306.1208027766299</v>
@@ -5303,25 +5303,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O15" t="n">
         <v>287.8657185439749</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>282.1391483292483</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>116.5478733550759</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5461,25 +5461,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2683.851649999257</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2437.972203577713</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2159.539202830818</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1872.583694701248</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
         <v>793.2056155771595</v>
@@ -5549,16 +5549,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O18" t="n">
         <v>287.8657185439749</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5686,37 +5686,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2265.02878318778</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,64 +5738,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>282.1391483292483</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>105.4320942910045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>105.4320942910045</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,13 +6224,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
         <v>1463.16863798718</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>282.1391483292483</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M29" t="n">
         <v>1463.16863798718</v>
@@ -6537,22 +6537,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O30" t="n">
         <v>287.8657185439749</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6698,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
         <v>1463.16863798718</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6835,19 +6835,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030279</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666413</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H34" t="n">
         <v>174.5210820832282</v>
@@ -6856,7 +6856,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>204.9138786708293</v>
       </c>
       <c r="K34" t="n">
         <v>495.7456864773249</v>
@@ -6877,10 +6877,10 @@
         <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6889,16 +6889,16 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="L35" t="n">
-        <v>306.120802776629</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>1254.614538886369</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2380.345522322816</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3360.525188893122</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886287</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030275</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666409</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412733</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799771</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
@@ -7166,40 +7166,40 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239093</v>
+        <v>1228.461808239091</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
         <v>442.520979946312</v>
@@ -7327,7 +7327,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,10 +7348,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7366,16 +7366,16 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="41">
@@ -7388,55 +7388,55 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239092</v>
+        <v>1254.614538886369</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2380.345522322816</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3360.525188893122</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4188.835063726518</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
         <v>4607.41549767352</v>
@@ -7448,13 +7448,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7564,22 +7564,22 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823634</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
@@ -7625,7 +7625,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
         <v>1584.13803439033</v>
@@ -7634,49 +7634,49 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.295274783585</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239092</v>
+        <v>1254.614538886369</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2380.345522322816</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3360.525188893122</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4188.835063726518</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
         <v>4364.592902403413</v>
@@ -7719,34 +7719,34 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581785</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581785</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581785</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581785</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7801,16 +7801,16 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758674</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823628</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856838</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7825,25 +7825,25 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
@@ -8152,7 +8152,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>517.1965904184189</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380858</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,31 +8289,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>356.3324900628597</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>632.8234408380857</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,19 +8374,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>373.9971844171391</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,13 +8696,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>375.8690293015742</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>987.6665281204157</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204157</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10422,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10601,7 +10601,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>810.2597416021417</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437652</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.318287437651</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11078,7 +11078,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>525.6020760720376</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.318287437651</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11315,7 +11315,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>525.6020760720376</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11370,16 +11370,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>92.06596429261231</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>222.5881930805363</v>
+        <v>186.8606096239083</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>241.887064414843</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>242.7544105373841</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>219.034393183155</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20.5256378367402</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.3636110865066</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.033496017354049e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.273083710220445e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>144.1344859240868</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627226</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>248.5691704774792</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>84.63380825304883</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>864730.596728611</v>
+        <v>707636.8188092418</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>764906.9943209972</v>
+        <v>922000.7722403664</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922000.7722403668</v>
+        <v>922000.7722403666</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922000.7722403669</v>
+        <v>922000.7722403668</v>
       </c>
     </row>
     <row r="8">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246242</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106403</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880864998</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658728</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338224</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099789</v>
+        <v>21768.74196143505</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.22459628</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713893</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145187.0004788318</v>
+        <v>93950.45407140563</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121444.0360228517</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>668.9466039800579</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="F4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826025</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
@@ -26439,25 +26439,25 @@
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>6148.690207415866</v>
+        <v>6148.690207415864</v>
       </c>
       <c r="M4" t="n">
-        <v>6148.690207415869</v>
+        <v>16466.62778780234</v>
       </c>
       <c r="N4" t="n">
         <v>16466.62778780235</v>
       </c>
       <c r="O4" t="n">
-        <v>16466.62778780234</v>
+        <v>16466.62778780235</v>
       </c>
       <c r="P4" t="n">
-        <v>16466.62778780234</v>
+        <v>16466.62778780235</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.2652029556</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972127</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346803.0892757641</v>
+        <v>-295896.0014269078</v>
       </c>
       <c r="C6" t="n">
-        <v>-228592.8814069821</v>
+        <v>-260916.4506182698</v>
       </c>
       <c r="D6" t="n">
-        <v>-228592.8814069821</v>
+        <v>-198493.2339810724</v>
       </c>
       <c r="E6" t="n">
-        <v>-228929.1596002011</v>
+        <v>-260902.9045570074</v>
       </c>
       <c r="F6" t="n">
-        <v>-161787.3003531624</v>
+        <v>-78547.79533595788</v>
       </c>
       <c r="G6" t="n">
-        <v>-78524.57099657512</v>
+        <v>-78547.79533595775</v>
       </c>
       <c r="H6" t="n">
-        <v>-78524.57099657512</v>
+        <v>-78547.79533595775</v>
       </c>
       <c r="I6" t="n">
-        <v>-78524.57099657512</v>
+        <v>-78547.79533595775</v>
       </c>
       <c r="J6" t="n">
-        <v>-189539.0363415653</v>
+        <v>-189562.2606809479</v>
       </c>
       <c r="K6" t="n">
-        <v>-78524.57099657512</v>
+        <v>-132216.12239934</v>
       </c>
       <c r="L6" t="n">
-        <v>-98220.41701667443</v>
+        <v>-107000.5907071116</v>
       </c>
       <c r="M6" t="n">
-        <v>-225626.0733419566</v>
+        <v>-229559.943251744</v>
       </c>
       <c r="N6" t="n">
-        <v>-148785.043171031</v>
+        <v>-91982.24251389205</v>
       </c>
       <c r="O6" t="n">
-        <v>-91982.24251389205</v>
+        <v>-91982.24251389204</v>
       </c>
       <c r="P6" t="n">
         <v>-91982.24251389205</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>16.23571033874736</v>
+      </c>
+      <c r="M2" t="n">
+        <v>16.23571033874736</v>
+      </c>
+      <c r="N2" t="n">
+        <v>16.23571033874736</v>
+      </c>
+      <c r="O2" t="n">
+        <v>16.23571033874736</v>
+      </c>
+      <c r="P2" t="n">
         <v>16.23571033874737</v>
-      </c>
-      <c r="M2" t="n">
-        <v>16.23571033874737</v>
-      </c>
-      <c r="N2" t="n">
-        <v>16.23571033874737</v>
-      </c>
-      <c r="O2" t="n">
-        <v>16.23571033874737</v>
-      </c>
-      <c r="P2" t="n">
-        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204157</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179814</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977119</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003114</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643295</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179814</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977119</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273075</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179814</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977119</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643295</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>208.9624938967636</v>
+        <v>244.6900773533916</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>164.4246167609696</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>220.7768247777594</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>97.42050141645262</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>44.84994170680201</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>205.6053437107333</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>80.57858259414041</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>135.0797604404444</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>19.75255685807451</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874765</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874688</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874771</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,10 +34708,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34772,10 +34772,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34863,16 +34863,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>517.1965904184189</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380858</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>356.3324900628597</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>632.8234408380857</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>373.9971844171391</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35416,22 +35416,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>375.8690293015742</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>987.6665281204157</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>987.6665281204157</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512975</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37242,7 +37242,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
         <v>186.127402120901</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37321,7 +37321,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>810.2597416021417</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37549,7 +37549,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437652</v>
+        <v>1142.31828743765</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.318287437651</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37798,7 +37798,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>525.6020760720376</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37938,22 +37938,22 @@
         <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348443</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
         <v>186.127402120901</v>
@@ -38023,7 +38023,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.318287437651</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -38035,7 +38035,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>525.6020760720376</v>
       </c>
       <c r="R44" t="n">
         <v>170.862691669754</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>92.06596429261231</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38108,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778278</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,13 +38187,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
